--- a/mylist2.xlsx
+++ b/mylist2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegtutanov/Documents/Programming/testproject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegtutanov/Documents/Programming/FireRes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5780B9B6-9A22-044B-AF32-0A7E960E97E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CD0568-259F-F04B-A714-A8D0EE0611A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="1440" windowWidth="21240" windowHeight="17500" xr2:uid="{844A505D-6A42-AE4A-B15F-816C60932A50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="90">
   <si>
     <t>Slot</t>
   </si>
@@ -722,13 +722,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE70008-0A2C-7E4D-81B7-A1DAF9B1095E}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A24" sqref="A24:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1436,7 +1439,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>74</v>
@@ -1471,13 +1474,13 @@
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -1503,28 +1506,28 @@
         <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1">
-        <v>29</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
@@ -1532,31 +1535,31 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1">
+        <v>29</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="1">
-        <v>53</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F26" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -1564,31 +1567,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1">
-        <v>49</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
@@ -1599,28 +1602,28 @@
         <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>29</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>15</v>
@@ -1631,28 +1634,28 @@
         <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>40</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
-        <v>33</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F29" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>15</v>
@@ -1660,31 +1663,31 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="1">
-        <v>20</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
@@ -1692,31 +1695,31 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1">
-        <v>40</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F31" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>15</v>
@@ -1727,94 +1730,30 @@
         <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>14</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="1">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1">
-        <v>33</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="1">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1842,18 +1781,16 @@
     <hyperlink ref="B20" r:id="rId19" display="http://wowhead.com/classic/item=228243" xr:uid="{56240C0B-85B0-FB40-94B1-D05D78ED3A77}"/>
     <hyperlink ref="B21" r:id="rId20" display="http://wowhead.com/classic/item=228045" xr:uid="{1284C580-ECBA-4946-B037-CCD9B9FA6BF7}"/>
     <hyperlink ref="B22" r:id="rId21" display="http://wowhead.com/classic/item=227454" xr:uid="{F9D70642-381D-AE4B-AE98-8919C3F413A6}"/>
-    <hyperlink ref="B28" r:id="rId22" display="http://wowhead.com/classic/item=12930" xr:uid="{A6E66F0B-242E-AA4C-A3B1-99624C86C145}"/>
-    <hyperlink ref="B29" r:id="rId23" display="http://wowhead.com/classic/item=213347" xr:uid="{CCD7BCFC-ABB8-F74E-BD81-66DD21C6C3E2}"/>
-    <hyperlink ref="B30" r:id="rId24" display="http://wowhead.com/classic/item=227915" xr:uid="{F1D67BD0-FA60-5B41-ACF1-66C7303CEF71}"/>
-    <hyperlink ref="B31" r:id="rId25" display="http://wowhead.com/classic/item=228084" xr:uid="{B8EC5B12-61E6-F848-9437-15CF17856E64}"/>
-    <hyperlink ref="B32" r:id="rId26" display="http://wowhead.com/classic/item=13396" xr:uid="{655912BC-D2CD-BA4A-BF1C-D17DF05A9166}"/>
-    <hyperlink ref="B33" r:id="rId27" display="http://wowhead.com/classic/item=228262" xr:uid="{6A266A57-44A2-E44F-8148-E7B34ED9961A}"/>
-    <hyperlink ref="B34" r:id="rId28" display="http://wowhead.com/classic/item=13004" xr:uid="{0405F483-4D0E-CA48-90EA-FF993F1C60BB}"/>
-    <hyperlink ref="B24" r:id="rId29" display="http://wowhead.com/classic/item=228243" xr:uid="{1B7BE59B-3D8C-B048-B242-3FC80EA2531C}"/>
-    <hyperlink ref="B25" r:id="rId30" display="http://wowhead.com/classic/item=228045" xr:uid="{15544079-94B0-6F42-BBA3-505A54BB5233}"/>
-    <hyperlink ref="B26" r:id="rId31" display="http://wowhead.com/classic/item=227454" xr:uid="{CAAB3A12-05EB-D949-8ED4-8094C47C3504}"/>
-    <hyperlink ref="B23" r:id="rId32" display="http://wowhead.com/classic/item=228687" xr:uid="{5BE1D73D-2812-D642-83C2-3C8171E2B16D}"/>
-    <hyperlink ref="B27" r:id="rId33" display="http://wowhead.com/classic/item=228687" xr:uid="{42838AF9-E81A-AA4A-8155-E6D4D5EE66F4}"/>
+    <hyperlink ref="B26" r:id="rId22" display="http://wowhead.com/classic/item=12930" xr:uid="{A6E66F0B-242E-AA4C-A3B1-99624C86C145}"/>
+    <hyperlink ref="B27" r:id="rId23" display="http://wowhead.com/classic/item=213347" xr:uid="{CCD7BCFC-ABB8-F74E-BD81-66DD21C6C3E2}"/>
+    <hyperlink ref="B28" r:id="rId24" display="http://wowhead.com/classic/item=227915" xr:uid="{F1D67BD0-FA60-5B41-ACF1-66C7303CEF71}"/>
+    <hyperlink ref="B29" r:id="rId25" display="http://wowhead.com/classic/item=228084" xr:uid="{B8EC5B12-61E6-F848-9437-15CF17856E64}"/>
+    <hyperlink ref="B30" r:id="rId26" display="http://wowhead.com/classic/item=13396" xr:uid="{655912BC-D2CD-BA4A-BF1C-D17DF05A9166}"/>
+    <hyperlink ref="B31" r:id="rId27" display="http://wowhead.com/classic/item=228262" xr:uid="{6A266A57-44A2-E44F-8148-E7B34ED9961A}"/>
+    <hyperlink ref="B32" r:id="rId28" display="http://wowhead.com/classic/item=13004" xr:uid="{0405F483-4D0E-CA48-90EA-FF993F1C60BB}"/>
+    <hyperlink ref="B24" r:id="rId29" display="http://wowhead.com/classic/item=228045" xr:uid="{15544079-94B0-6F42-BBA3-505A54BB5233}"/>
+    <hyperlink ref="B25" r:id="rId30" display="http://wowhead.com/classic/item=227454" xr:uid="{CAAB3A12-05EB-D949-8ED4-8094C47C3504}"/>
+    <hyperlink ref="B23" r:id="rId31" display="http://wowhead.com/classic/item=228687" xr:uid="{5BE1D73D-2812-D642-83C2-3C8171E2B16D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
